--- a/options.xlsx
+++ b/options.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se_sA\Downloads\EFillingController\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6C243-8120-4D1E-A8F6-F4DA56AAFAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCD52E-C1AF-4E0B-8374-7801E131175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -954,10 +967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,11 +1010,12 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2">
         <v>2566</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
@@ -1104,6 +1119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B489EAED-CE19-43A0-A4AA-AF1F41E12BAD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/options.xlsx
+++ b/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se_sA\Downloads\EFillingController\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FCD52E-C1AF-4E0B-8374-7801E131175E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1244A-A30F-4C30-8877-DA7265FD5FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1015,7 @@
         <v>2566</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>

--- a/options.xlsx
+++ b/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se_sA\Downloads\EFillingController\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1244A-A30F-4C30-8877-DA7265FD5FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8F349-36E6-4F29-9A74-A7769E039970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ประเภทแบบ</t>
   </si>
@@ -971,7 +971,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,12 +1011,6 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2">
-        <v>2566</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" t="s">
         <v>8</v>
       </c>
